--- a/作图表格.xlsx
+++ b/作图表格.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="作图表格" sheetId="1" state="visible" r:id="rId2"/>
@@ -52,10 +52,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -172,8 +173,29 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF3838"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FFFF3838"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="24"/>
+      <color rgb="FF00BFFF"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +212,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF3838"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00BFFF"/>
+        <bgColor rgb="FF33CCCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -242,7 +276,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="28">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -263,7 +297,7 @@
       <alignment horizontal="right" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -271,15 +305,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -287,7 +321,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -295,7 +329,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -319,8 +353,40 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -402,11 +468,11 @@
   </sheetPr>
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P6" activeCellId="1" sqref="18:18 P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="0" width="4.83"/>
@@ -646,14 +712,516 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:V19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="18:18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4140625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="1" style="0" width="2.42"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="20"/>
+      <c r="P1" s="20"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="22"/>
+      <c r="U2" s="22"/>
+      <c r="V2" s="1"/>
+    </row>
+    <row r="3" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="21"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="21"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="T3" s="22"/>
+      <c r="U3" s="22"/>
+      <c r="V3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
+      <c r="V4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
+      <c r="V6" s="1"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="22"/>
+      <c r="U7" s="22"/>
+      <c r="V7" s="1"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="21"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="22"/>
+      <c r="U8" s="22"/>
+      <c r="V8" s="1"/>
+    </row>
+    <row r="9" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="23"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="24"/>
+      <c r="V9" s="1"/>
+    </row>
+    <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="22"/>
+      <c r="U10" s="22"/>
+      <c r="V10" s="1"/>
+    </row>
+    <row r="11" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="22"/>
+      <c r="U11" s="22"/>
+      <c r="V11" s="1"/>
+    </row>
+    <row r="12" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="22"/>
+      <c r="U12" s="22"/>
+      <c r="V12" s="1"/>
+    </row>
+    <row r="13" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="25"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="25"/>
+      <c r="U13" s="24"/>
+      <c r="V13" s="1"/>
+    </row>
+    <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="22"/>
+      <c r="U15" s="22"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="22"/>
+      <c r="V16" s="1"/>
+    </row>
+    <row r="17" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+    </row>
+    <row r="18" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="26" t="n">
+        <f aca="false">E2+J2+O2+T2+E6+J6+O6+T6+E10+J10+O10+T10+E14+J14+O14+T14</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="26"/>
+      <c r="K18" s="26"/>
+      <c r="L18" s="27" t="n">
+        <f aca="false">F2+K2+P2+U2+F6+K6+P6+U6+F10+K10+P10+U10+F14+K14+P14+U14</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+    </row>
+    <row r="19" customFormat="false" ht="7.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="O2:O4"/>
+    <mergeCell ref="P2:P4"/>
+    <mergeCell ref="T2:T4"/>
+    <mergeCell ref="U2:U4"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+    <mergeCell ref="J6:J8"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="P6:P8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="J10:J12"/>
+    <mergeCell ref="K10:K12"/>
+    <mergeCell ref="O10:O12"/>
+    <mergeCell ref="P10:P12"/>
+    <mergeCell ref="T10:T12"/>
+    <mergeCell ref="U10:U12"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="J14:J16"/>
+    <mergeCell ref="K14:K16"/>
+    <mergeCell ref="O14:O16"/>
+    <mergeCell ref="P14:P16"/>
+    <mergeCell ref="T14:T16"/>
+    <mergeCell ref="U14:U16"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="L18:N18"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/作图表格.xlsx
+++ b/作图表格.xlsx
@@ -56,7 +56,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="微软雅黑"/>
@@ -174,7 +174,15 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
+      <b val="true"/>
+      <sz val="16"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
       <color rgb="FFFF3838"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -183,16 +191,16 @@
     <font>
       <sz val="24"/>
       <color rgb="FFFF3838"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="24"/>
       <color rgb="FF00BFFF"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -276,7 +284,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -365,15 +373,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -381,11 +389,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -469,10 +485,10 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P6" activeCellId="1" sqref="18:18 P6"/>
+      <selection pane="topLeft" activeCell="P6" activeCellId="0" sqref="P6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="2" style="0" width="4.83"/>
@@ -715,10 +731,10 @@
   <dimension ref="A1:V19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="18:18"/>
+      <selection pane="topLeft" activeCell="X14" activeCellId="0" sqref="X14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.39453125" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.37890625" defaultRowHeight="14.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="1" style="0" width="2.42"/>
   </cols>
@@ -754,19 +770,19 @@
       <c r="D2" s="1"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="1"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="1"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="23"/>
       <c r="O2" s="22"/>
       <c r="P2" s="22"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
       <c r="T2" s="22"/>
       <c r="U2" s="22"/>
       <c r="V2" s="1"/>
@@ -778,19 +794,19 @@
       <c r="D3" s="21"/>
       <c r="E3" s="22"/>
       <c r="F3" s="22"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="1"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="22"/>
       <c r="K3" s="22"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="21"/>
-      <c r="N3" s="21"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
       <c r="T3" s="22"/>
       <c r="U3" s="22"/>
       <c r="V3" s="1"/>
@@ -802,19 +818,19 @@
       <c r="D4" s="1"/>
       <c r="E4" s="22"/>
       <c r="F4" s="22"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="22"/>
       <c r="K4" s="22"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
       <c r="T4" s="22"/>
       <c r="U4" s="22"/>
       <c r="V4" s="1"/>
@@ -824,23 +840,23 @@
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="24"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="24"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="26"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="26"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="25"/>
+      <c r="U5" s="26"/>
       <c r="V5" s="1"/>
     </row>
     <row r="6" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -850,19 +866,19 @@
       <c r="D6" s="1"/>
       <c r="E6" s="22"/>
       <c r="F6" s="22"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="1"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="22"/>
       <c r="K6" s="22"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="1"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="23"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
       <c r="T6" s="22"/>
       <c r="U6" s="22"/>
       <c r="V6" s="1"/>
@@ -874,19 +890,19 @@
       <c r="D7" s="1"/>
       <c r="E7" s="22"/>
       <c r="F7" s="22"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
       <c r="J7" s="22"/>
       <c r="K7" s="22"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="24"/>
+      <c r="N7" s="24"/>
       <c r="O7" s="22"/>
       <c r="P7" s="22"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="1"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="23"/>
       <c r="T7" s="22"/>
       <c r="U7" s="22"/>
       <c r="V7" s="1"/>
@@ -898,19 +914,19 @@
       <c r="D8" s="1"/>
       <c r="E8" s="22"/>
       <c r="F8" s="22"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="22"/>
       <c r="K8" s="22"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="1"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="23"/>
       <c r="O8" s="22"/>
       <c r="P8" s="22"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="21"/>
-      <c r="S8" s="1"/>
+      <c r="Q8" s="23"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="23"/>
       <c r="T8" s="22"/>
       <c r="U8" s="22"/>
       <c r="V8" s="1"/>
@@ -920,23 +936,23 @@
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="23"/>
-      <c r="U9" s="24"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="26"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="23"/>
+      <c r="T9" s="25"/>
+      <c r="U9" s="26"/>
       <c r="V9" s="1"/>
     </row>
     <row r="10" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -946,19 +962,19 @@
       <c r="D10" s="1"/>
       <c r="E10" s="22"/>
       <c r="F10" s="22"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="22"/>
       <c r="K10" s="22"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
       <c r="T10" s="22"/>
       <c r="U10" s="22"/>
       <c r="V10" s="1"/>
@@ -970,19 +986,19 @@
       <c r="D11" s="21"/>
       <c r="E11" s="22"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
       <c r="J11" s="22"/>
       <c r="K11" s="22"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="1"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="23"/>
       <c r="T11" s="22"/>
       <c r="U11" s="22"/>
       <c r="V11" s="1"/>
@@ -994,19 +1010,19 @@
       <c r="D12" s="1"/>
       <c r="E12" s="22"/>
       <c r="F12" s="22"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="1"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="22"/>
       <c r="K12" s="22"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="1"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="23"/>
       <c r="O12" s="22"/>
       <c r="P12" s="22"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
       <c r="T12" s="22"/>
       <c r="U12" s="22"/>
       <c r="V12" s="1"/>
@@ -1016,23 +1032,23 @@
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="25"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="25"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="25"/>
-      <c r="U13" s="24"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="23"/>
+      <c r="O13" s="27"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="23"/>
+      <c r="R13" s="23"/>
+      <c r="S13" s="23"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="26"/>
       <c r="V13" s="1"/>
     </row>
     <row r="14" customFormat="false" ht="14.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1042,19 +1058,19 @@
       <c r="D14" s="1"/>
       <c r="E14" s="22"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="22"/>
       <c r="K14" s="22"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="1"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="23"/>
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="21"/>
-      <c r="S14" s="1"/>
+      <c r="Q14" s="23"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="23"/>
       <c r="T14" s="22"/>
       <c r="U14" s="22"/>
       <c r="V14" s="1"/>
@@ -1066,19 +1082,19 @@
       <c r="D15" s="1"/>
       <c r="E15" s="22"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="22"/>
       <c r="K15" s="22"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="1"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="23"/>
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="1"/>
+      <c r="Q15" s="23"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="23"/>
       <c r="T15" s="22"/>
       <c r="U15" s="22"/>
       <c r="V15" s="1"/>
@@ -1090,19 +1106,19 @@
       <c r="D16" s="1"/>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="1"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="22"/>
       <c r="K16" s="22"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="1"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="24"/>
+      <c r="N16" s="23"/>
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
+      <c r="Q16" s="23"/>
+      <c r="R16" s="23"/>
+      <c r="S16" s="23"/>
       <c r="T16" s="22"/>
       <c r="U16" s="22"/>
       <c r="V16" s="1"/>
@@ -1140,18 +1156,18 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-      <c r="I18" s="26" t="n">
+      <c r="I18" s="28" t="n">
         <f aca="false">E2+J2+O2+T2+E6+J6+O6+T6+E10+J10+O10+T10+E14+J14+O14+T14</f>
         <v>0</v>
       </c>
-      <c r="J18" s="26"/>
-      <c r="K18" s="26"/>
-      <c r="L18" s="27" t="n">
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="29" t="n">
         <f aca="false">F2+K2+P2+U2+F6+K6+P6+U6+F10+K10+P10+U10+F14+K14+P14+U14</f>
         <v>0</v>
       </c>
-      <c r="M18" s="27"/>
-      <c r="N18" s="27"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="29"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
